--- a/forwardprimer-v3_17.xlsx
+++ b/forwardprimer-v3_17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_17" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F1537-TGGTTGGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTTGGTGATCGTCGGCAGCGTC</t>
+    <t>F1537-AGTGTGTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTGTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F1538-TACGAGACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGAGACAATCGTCGGCAGCGTC</t>
+    <t>F1538-TGATCTCAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATCTCAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F1539-TGTGGATCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGATCAATCGTCGGCAGCGTC</t>
+    <t>F1539-GGTGTTCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTGTTCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F1540-GACTGTGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTGTGTGTTCGTCGGCAGCGTC</t>
+    <t>F1540-CTCCAAGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCCAAGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F1541-ATGATGGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGATGGACTTCGTCGGCAGCGTC</t>
+    <t>F1541-CACAAGCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACAAGCTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F1542-CGATGGAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGATGGAACTTCGTCGGCAGCGTC</t>
+    <t>F1542-TGACACTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACACTTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F1543-CAAGCTGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGCTGAGTTCGTCGGCAGCGTC</t>
+    <t>F1543-TCAGATGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGATGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F1544-AAGAGCTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGCTGAATCGTCGGCAGCGTC</t>
+    <t>F1544-GAACACTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACACTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F1545-GTTCGAAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGAAGACTCGTCGGCAGCGTC</t>
+    <t>F1545-CTCTGCAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTGCAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F1546-TTGTGTGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTGTGTGATCGTCGGCAGCGTC</t>
+    <t>F1546-TACTGTCGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTGTCGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F1547-TGATCAGGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATCAGGTCTCGTCGGCAGCGTC</t>
+    <t>F1547-AGAGATGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGATGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F1548-GTTGAGCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGAGCAGTTCGTCGGCAGCGTC</t>
+    <t>F1548-ACACAGTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACAGTACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F1549-GCTCTACAGT</t>
+    <t>F1549-TCACATCCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACATCCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>F1550-TCATCACCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATCACCAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>F1551-GAGCACTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGCACTAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>F1552-GTCATGACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCATGACATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>F1553-ACTGGTACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGGTACCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>F1554-ACCTGAACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTGAACAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>F1555-GTTCTCATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTCATGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>F1556-TGACCTTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACCTTGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>F1557-AACATGGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACATGGTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>F1558-GGAGCAAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAGCAAGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>F1559-TAGTCCAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCCAGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F1560-GCTCTACAGT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACGCTCTACAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>F1550-CCTTGAGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGAGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>F1551-TGGAACACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGAACACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>F1552-AAGAACCTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAACCTCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>F1553-GAAGACGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGACGATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>F1554-TGAGGAACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGGAACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>F1555-GCAGATGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAGATGACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>F1556-TGAGACCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGACCAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>F1557-GACGATGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACGATGGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>F1558-CTACTTGAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACTTGAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>F1559-GTAGTTCTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTTCTCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F1560-AACATGGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACATGGTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F1561-AGTAGTGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGTGTGATCGTCGGCAGCGTC</t>
+    <t>F1561-TAGGTCACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTCACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F1562-TCTGCACTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGCACTTCTCGTCGGCAGCGTC</t>
+    <t>F1562-TAGACAGAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACAGAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F1563-GATCCTCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCCTCAGATCGTCGGCAGCGTC</t>
+    <t>F1563-GACAGCATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACAGCATGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F1564-GACACTTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACACTTCCTTCGTCGGCAGCGTC</t>
+    <t>F1564-TTGCTGAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTGAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F1565-ACAACTCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACTCAGTTCGTCGGCAGCGTC</t>
+    <t>F1565-ATGAGAAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAGAAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F1566-GAACATGGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACATGGACTCGTCGGCAGCGTC</t>
+    <t>F1566-TCCTGTAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGTAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F1567-GAGTTCAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTCAGAATCGTCGGCAGCGTC</t>
+    <t>F1567-TAGAAGGACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAAGGACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F1568-TGTAGCTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGCTAGATCGTCGGCAGCGTC</t>
+    <t>F1568-AGTCTGCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTGCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F1569-ATCAGAACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAGAACTCTCGTCGGCAGCGTC</t>
+    <t>F1569-AGAGACAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F1570-ACGTTGACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTTGACCTTCGTCGGCAGCGTC</t>
+    <t>F1570-TAGCAACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAACCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F1571-TCTCTCTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTCTCTTTCGTCGGCAGCGTC</t>
+    <t>F1571-CTGTTGTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTTGTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F1572-GATCCTTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCCTTCATTCGTCGGCAGCGTC</t>
+    <t>F1572-ACTACGACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTACGACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F1573-ACAGTGGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTGGATGTCGTCGGCAGCGTC</t>
+    <t>F1573-TACTGCTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTGCTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F1574-GTTGCACTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGCACTTGTCGTCGGCAGCGTC</t>
+    <t>F1574-AGACACGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACACGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F1575-CAGACACGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGACACGTTTCGTCGGCAGCGTC</t>
+    <t>F1575-AGTCACCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCACCATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F1576-GTTCACTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCACTTCCTCGTCGGCAGCGTC</t>
+    <t>F1576-CTCTTCGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTTCGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F1577-AAGTGTGTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGTGTGGTCGTCGGCAGCGTC</t>
+    <t>F1577-ATCGTCTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGTCTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F1578-AACCACGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCACGTTGTCGTCGGCAGCGTC</t>
+    <t>F1578-TACTTGAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTTGAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F1579-CTCTCAGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCAGATCTCGTCGGCAGCGTC</t>
+    <t>F1579-GTCACTCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCACTCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F1580-TCCAGACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGACTCATCGTCGGCAGCGTC</t>
+    <t>F1580-AAGATCCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGATCCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F1581-AACTCTCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCTCTACTCGTCGGCAGCGTC</t>
+    <t>F1581-TTCGAGACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGAGACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F1582-CTCAGACAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGACAAGTCGTCGGCAGCGTC</t>
+    <t>F1582-TCATGTTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATGTTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F1583-GACACGTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACACGTAGATCGTCGGCAGCGTC</t>
+    <t>F1583-CACTACACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTACACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F1584-TGTGCAACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGCAACGATCGTCGGCAGCGTC</t>
+    <t>F1584-CATCGAGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCGAGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F1585-AGGTTGAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTGAGACTCGTCGGCAGCGTC</t>
+    <t>F1585-ACAGCTACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGCTACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F1586-CGATGATGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGATGATGCATCGTCGGCAGCGTC</t>
+    <t>F1586-TACTTCACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTTCACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F1587-AACAGAGCTG</t>
+    <t>F1587-TGTCAGTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCAGTACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F1588-TTGGTCGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTCGTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F1589-ACTCCTCCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCCTCCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F1590-CTCCATCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCCATCTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F1591-TACAGGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAGGACAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F1592-TCGTTGGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTTGGACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F1593-TTGCAGAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCAGAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F1594-TACTCCTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCCTGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F1595-AACAGAGCTG</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACAACAGAGCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F1588-GAGACGTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGACGTCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F1589-TTGAGGTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGGTTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F1590-GAACACAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACACAAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F1591-CCATGTGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCATGTGTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F1592-ACAAGCACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGCACTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F1593-AACACACCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACACCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F1594-GAAGTAGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTAGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F1595-GGTTGTCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGTCTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F1596-GATGAGCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGAGCATGTCGTCGGCAGCGTC</t>
+    <t>F1596-TCCTTCGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTCGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F1597-AGACTGGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACTGGAGTTCGTCGGCAGCGTC</t>
+    <t>F1597-GATGTGAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGTGAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F1598-GAGGTGTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGGTGTGATTCGTCGGCAGCGTC</t>
+    <t>F1598-TCTTCCTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTCCTTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F1599-AACGAACAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGAACAGATCGTCGGCAGCGTC</t>
+    <t>F1599-GAAGAACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAACGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F1600-TAGTCTACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCTACAGTCGTCGGCAGCGTC</t>
+    <t>F1600-ATCAGTGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAGTGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F1601-ACCACGTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCACGTTGATCGTCGGCAGCGTC</t>
+    <t>F1601-ATCCTCGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTCGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F1602-ACTAGCTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTAGCTGAGTCGTCGGCAGCGTC</t>
+    <t>F1602-TCAGAACTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAACTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F1603-TCAAGCAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGCAAGCTCGTCGGCAGCGTC</t>
+    <t>F1603-GTACTCACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACTCACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F1604-ACAAGCATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGCATCTTCGTCGGCAGCGTC</t>
+    <t>F1604-GCTGTTCGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTGTTCGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F1605-GATGATGAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGATGAGCTCGTCGGCAGCGTC</t>
+    <t>F1605-TGAAGATGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGATGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F1606-ATGCTCGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCTCGAGTTCGTCGGCAGCGTC</t>
+    <t>F1606-TGCAAGACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAAGACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F1607-AACAGTAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGTAGGTTCGTCGGCAGCGTC</t>
+    <t>F1607-CAACAGTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACAGTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F1608-ACTGGTTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGGTTCAATCGTCGGCAGCGTC</t>
+    <t>F1608-TCCTACAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTACAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F1609-GTACGAGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACGAGTTCTCGTCGGCAGCGTC</t>
+    <t>F1609-CCACCATCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCACCATCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F1610-AACGACCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGACCTCTTCGTCGGCAGCGTC</t>
+    <t>F1610-GAGAAGACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAAGACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F1611-TGACACTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACACTTCATCGTCGGCAGCGTC</t>
+    <t>F1611-TGTGTACTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTACTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F1612-TACCACAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCACAAGGTCGTCGGCAGCGTC</t>
+    <t>F1612-CAACCATCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACCATCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F1613-ACTCTAGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCTAGTGATCGTCGGCAGCGTC</t>
+    <t>F1613-TGCAACGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAACGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F1614-CCAGTACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAGTACGTATCGTCGGCAGCGTC</t>
+    <t>F1614-GATCACTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCACTCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F1615-ACAACAAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACAAGCTTCGTCGGCAGCGTC</t>
+    <t>F1615-GAGTCGTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCGTTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F1616-CTTCTCCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCTCCTCTTCGTCGGCAGCGTC</t>
+    <t>F1616-GTACCATGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACCATGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F1617-GTACCAGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACCAGTGATCGTCGGCAGCGTC</t>
+    <t>F1617-GATCCAGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCCAGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F1618-TACAGAGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAGAGAGATCGTCGGCAGCGTC</t>
+    <t>F1618-AAGTGACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGACCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F1619-GTGCTCTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGCTCTGAATCGTCGGCAGCGTC</t>
+    <t>F1619-ACAGTTCGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGTTCGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F1620-AGACTCGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACTCGAAGTCGTCGGCAGCGTC</t>
+    <t>F1620-TGTTGCTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTGCTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F1621-CAAGTTGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTTGCATTCGTCGGCAGCGTC</t>
+    <t>F1621-TAGAAGATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAAGATCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F1622-TCTGAAGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGAAGCATTCGTCGGCAGCGTC</t>
+    <t>F1622-AGTGACTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGACTTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F1623-AAGCTGTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTGTGTGTCGTCGGCAGCGTC</t>
+    <t>F1623-ATCGTTGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGTTGCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F1624-TGACTTGTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACTTGTCGTCGTCGGCAGCGTC</t>
+    <t>F1624-CAGTTGCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTTGCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F1625-TCCACTCCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCACTCCTATCGTCGGCAGCGTC</t>
+    <t>F1625-CACAGTGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACAGTGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F1626-ACCACCTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCACCTCTATCGTCGGCAGCGTC</t>
+    <t>F1626-CTCTTCAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTTCAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F1627-AGCAGGAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGGAGATTCGTCGGCAGCGTC</t>
+    <t>F1627-CGAAGACTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAAGACTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F1628-TCTACACACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTACACACCTCGTCGGCAGCGTC</t>
+    <t>F1628-TGCTGATCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTGATCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F1629-CTAGGACGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGACGAATCGTCGGCAGCGTC</t>
+    <t>F1629-ACGACACTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGACACTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F1630-TCTAGTGCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGTGCAGTCGTCGGCAGCGTC</t>
+    <t>F1630-TCTACACTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTACACTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F1631-CGTTCCATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTCCATGATCGTCGGCAGCGTC</t>
+    <t>F1631-GAAGATCGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGATCGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F1632-GTCAGTACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAGTACGATCGTCGGCAGCGTC</t>
+    <t>F1632-AGTGTTCCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTTCCTCTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
